--- a/docentes/Cruz Alejo José Armando Estadisticos 2020.xlsx
+++ b/docentes/Cruz Alejo José Armando Estadisticos 2020.xlsx
@@ -721,7 +721,7 @@
         <v>9</v>
       </c>
       <c r="G2">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -744,7 +744,7 @@
         <v>9</v>
       </c>
       <c r="G3">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -767,7 +767,7 @@
         <v>9</v>
       </c>
       <c r="G4">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -790,7 +790,7 @@
         <v>9</v>
       </c>
       <c r="G5">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -813,7 +813,7 @@
         <v>9</v>
       </c>
       <c r="G6">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
